--- a/Work/Data/oil-production_db.xlsx
+++ b/Work/Data/oil-production_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DE2C5-646F-4835-AEBF-600CF3B691AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28779192-B303-439A-B2A4-E32888EA17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4548" yWindow="1788" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E6ED6-E920-4B72-BD2D-65610985EEA9}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -608,1368 +608,810 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C1" s="4">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D1" s="4">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E1" s="4">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="F1" s="4">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="G1" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H1" s="4">
-        <v>2016</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2021</v>
-      </c>
-      <c r="N1" s="4">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1227.1420000000001</v>
+        <v>1185.5</v>
       </c>
       <c r="C2" s="2">
-        <v>1260.838</v>
+        <v>1212.9259999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>1308.519</v>
+        <v>1272.7750000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>1381.597</v>
+        <v>1303.838</v>
       </c>
       <c r="F2" s="2">
-        <v>1399.8409999999999</v>
+        <v>1198.806</v>
       </c>
       <c r="G2" s="2">
-        <v>1263.375</v>
+        <v>1185.1179999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>1185.5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1212.9259999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1272.7750000000001</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1303.838</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1198.806</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1185.1179999999999</v>
-      </c>
-      <c r="N2" s="2">
         <v>1232.2630000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>2577.192</v>
+        <v>2153.4559999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>2552.4659999999999</v>
+        <v>1948.43</v>
       </c>
       <c r="D3" s="2">
-        <v>2547.9319999999998</v>
+        <v>1809.962</v>
       </c>
       <c r="E3" s="2">
-        <v>2522.1950000000002</v>
+        <v>1678.7559999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2428.8820000000001</v>
+        <v>1663.03</v>
       </c>
       <c r="G3" s="2">
-        <v>2266.8330000000001</v>
+        <v>1664.8030000000001</v>
       </c>
       <c r="H3" s="2">
-        <v>2153.4559999999997</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1948.43</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1809.962</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1678.7559999999999</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1663.03</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1664.8030000000001</v>
-      </c>
-      <c r="N3" s="2">
         <v>1622.4959999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>5484.375</v>
+        <v>8847.634</v>
       </c>
       <c r="C4" s="2">
-        <v>5674.2929999999997</v>
+        <v>9359.2469999999994</v>
       </c>
       <c r="D4" s="2">
-        <v>6523.8090000000002</v>
+        <v>10953.407999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>7497.3559999999998</v>
+        <v>12315.054999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>8793.3420000000006</v>
+        <v>11317.698999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>9441.732</v>
+        <v>11253.679</v>
       </c>
       <c r="H4" s="2">
-        <v>8847.634</v>
-      </c>
-      <c r="I4" s="2">
-        <v>9359.2469999999994</v>
-      </c>
-      <c r="J4" s="2">
-        <v>10953.407999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>12315.054999999998</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11317.698999999999</v>
-      </c>
-      <c r="M4" s="2">
-        <v>11253.679</v>
-      </c>
-      <c r="N4" s="2">
         <v>11886.901</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>1798.6219999999998</v>
+        <v>1614.5709999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>1680.126</v>
+        <v>1588.3320000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>1532.7919999999999</v>
+        <v>1486.759</v>
       </c>
       <c r="E5" s="2">
-        <v>1463.597</v>
+        <v>1408.2269999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>1511.825</v>
+        <v>1698.7270000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>1567.4360000000001</v>
+        <v>1770.0629999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>1614.5709999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1588.3320000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1486.759</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1408.2269999999999</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1698.7270000000001</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1770.0629999999999</v>
-      </c>
-      <c r="N5" s="2">
         <v>1685.1210000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>1202.364</v>
+        <v>914.822</v>
       </c>
       <c r="C6" s="2">
-        <v>1006.0469999999999</v>
+        <v>891.20500000000004</v>
       </c>
       <c r="D6" s="2">
-        <v>868.64499999999998</v>
+        <v>984.87899999999991</v>
       </c>
       <c r="E6" s="2">
-        <v>796.07399999999996</v>
+        <v>1007.1950000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>776.04899999999998</v>
+        <v>930.53600000000006</v>
       </c>
       <c r="G6" s="2">
-        <v>879.74</v>
+        <v>790.625</v>
       </c>
       <c r="H6" s="2">
-        <v>914.822</v>
-      </c>
-      <c r="I6" s="2">
-        <v>891.20500000000004</v>
-      </c>
-      <c r="J6" s="2">
-        <v>984.87899999999991</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1007.1950000000001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>930.53600000000006</v>
-      </c>
-      <c r="M6" s="2">
-        <v>790.625</v>
-      </c>
-      <c r="N6" s="2">
         <v>723.04700000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>328.27699999999999</v>
+        <v>165.25699999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>276.553</v>
+        <v>144.68800000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>276.27299999999997</v>
+        <v>116.827</v>
       </c>
       <c r="E7" s="2">
-        <v>209.21100000000001</v>
+        <v>135.57499999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>234.08200000000002</v>
+        <v>137.51400000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>211.71799999999999</v>
+        <v>120.608</v>
       </c>
       <c r="H7" s="2">
-        <v>165.25699999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>144.68800000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>116.827</v>
-      </c>
-      <c r="K7" s="2">
-        <v>135.57499999999999</v>
-      </c>
-      <c r="L7" s="2">
-        <v>137.51400000000001</v>
-      </c>
-      <c r="M7" s="2">
-        <v>120.608</v>
-      </c>
-      <c r="N7" s="2">
         <v>110.43799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>4076.3999999999996</v>
+        <v>3986.145</v>
       </c>
       <c r="C8" s="1">
-        <v>4052.1120000000001</v>
+        <v>3821.4850000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>4074.1639999999998</v>
+        <v>3787.0050000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>4163.7730000000001</v>
+        <v>3825.0160000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>4208.34</v>
+        <v>3888.989</v>
       </c>
       <c r="G8" s="1">
-        <v>4287.8379999999997</v>
+        <v>3987.6770000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>3986.145</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3821.4850000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3787.0050000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3825.0160000000001</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3888.989</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3987.6770000000001</v>
-      </c>
-      <c r="N8" s="1">
         <v>4093.86</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>692.33199999999999</v>
+        <v>691.58699999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>725.65199999999993</v>
+        <v>687.61599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>717.18000000000006</v>
+        <v>661.11200000000008</v>
       </c>
       <c r="E9" s="1">
-        <v>716.58900000000006</v>
+        <v>622.59699999999998</v>
       </c>
       <c r="F9" s="1">
-        <v>720.11800000000005</v>
+        <v>586.91800000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>718.82999999999993</v>
+        <v>573.68499999999995</v>
       </c>
       <c r="H9" s="1">
-        <v>691.58699999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>687.61599999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>661.11200000000008</v>
-      </c>
-      <c r="K9" s="1">
-        <v>622.59699999999998</v>
-      </c>
-      <c r="L9" s="1">
-        <v>586.91800000000001</v>
-      </c>
-      <c r="M9" s="1">
-        <v>573.68499999999995</v>
-      </c>
-      <c r="N9" s="1">
         <v>563.18900000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>824.51800000000003</v>
+        <v>737.91800000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>794.18399999999997</v>
+        <v>710.197</v>
       </c>
       <c r="D10" s="2">
-        <v>763.39599999999996</v>
+        <v>684.58399999999995</v>
       </c>
       <c r="E10" s="2">
-        <v>727.16199999999992</v>
+        <v>664.04700000000003</v>
       </c>
       <c r="F10" s="2">
-        <v>697.279</v>
+        <v>630.76200000000006</v>
       </c>
       <c r="G10" s="2">
-        <v>690.06599999999992</v>
+        <v>585.02499999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>737.91800000000001</v>
-      </c>
-      <c r="I10" s="2">
-        <v>710.197</v>
-      </c>
-      <c r="J10" s="2">
-        <v>684.58399999999995</v>
-      </c>
-      <c r="K10" s="2">
-        <v>664.04700000000003</v>
-      </c>
-      <c r="L10" s="2">
-        <v>630.76200000000006</v>
-      </c>
-      <c r="M10" s="2">
-        <v>585.02499999999998</v>
-      </c>
-      <c r="N10" s="2">
         <v>539.20000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>519.01900000000001</v>
+        <v>546.16399999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>455.78899999999999</v>
+        <v>542.553</v>
       </c>
       <c r="D11" s="2">
-        <v>471.495</v>
+        <v>539.16399999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>462.38400000000001</v>
+        <v>505.93999999999994</v>
       </c>
       <c r="F11" s="2">
-        <v>492.63</v>
+        <v>456.35500000000002</v>
       </c>
       <c r="G11" s="2">
-        <v>545</v>
+        <v>418.04899999999998</v>
       </c>
       <c r="H11" s="2">
-        <v>546.16399999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <v>542.553</v>
-      </c>
-      <c r="J11" s="2">
-        <v>539.16399999999999</v>
-      </c>
-      <c r="K11" s="2">
-        <v>505.93999999999994</v>
-      </c>
-      <c r="L11" s="2">
-        <v>456.35500000000002</v>
-      </c>
-      <c r="M11" s="2">
-        <v>418.04899999999998</v>
-      </c>
-      <c r="N11" s="2">
         <v>396.91500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>153.227</v>
+        <v>163.19900000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>140.101</v>
+        <v>141.13400000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>148.94</v>
+        <v>129.14000000000001</v>
       </c>
       <c r="E12" s="2">
-        <v>149.452</v>
+        <v>125.92900000000002</v>
       </c>
       <c r="F12" s="2">
-        <v>138.53700000000001</v>
+        <v>117.036</v>
       </c>
       <c r="G12" s="2">
-        <v>152.40799999999999</v>
+        <v>97.605000000000004</v>
       </c>
       <c r="H12" s="2">
-        <v>163.19900000000001</v>
-      </c>
-      <c r="I12" s="2">
-        <v>141.13400000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>129.14000000000001</v>
-      </c>
-      <c r="K12" s="2">
-        <v>125.92900000000002</v>
-      </c>
-      <c r="L12" s="2">
-        <v>117.036</v>
-      </c>
-      <c r="M12" s="2">
-        <v>97.605000000000004</v>
-      </c>
-      <c r="N12" s="2">
         <v>78.832999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>589.16199999999992</v>
+        <v>510.56</v>
       </c>
       <c r="C13" s="2">
-        <v>553.38099999999997</v>
+        <v>479.529</v>
       </c>
       <c r="D13" s="2">
-        <v>549.279</v>
+        <v>489.447</v>
       </c>
       <c r="E13" s="2">
-        <v>539.96400000000006</v>
+        <v>508.63000000000005</v>
       </c>
       <c r="F13" s="2">
-        <v>532.22199999999998</v>
+        <v>480.34399999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>532.274</v>
+        <v>512.94200000000001</v>
       </c>
       <c r="H13" s="2">
-        <v>510.56</v>
-      </c>
-      <c r="I13" s="2">
-        <v>479.529</v>
-      </c>
-      <c r="J13" s="2">
-        <v>489.447</v>
-      </c>
-      <c r="K13" s="2">
-        <v>508.63000000000005</v>
-      </c>
-      <c r="L13" s="2">
-        <v>480.34399999999999</v>
-      </c>
-      <c r="M13" s="2">
-        <v>512.94200000000001</v>
-      </c>
-      <c r="N13" s="2">
         <v>582.23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>2054.732</v>
+        <v>2509.9540000000002</v>
       </c>
       <c r="C14" s="2">
-        <v>2105.3700000000003</v>
+        <v>2621.797</v>
       </c>
       <c r="D14" s="2">
-        <v>2061.3220000000001</v>
+        <v>2586.54</v>
       </c>
       <c r="E14" s="2">
-        <v>2023.86</v>
+        <v>2787.6680000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>2254.5860000000002</v>
+        <v>2939.8330000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>2437.2959999999998</v>
+        <v>2905.0660000000003</v>
       </c>
       <c r="H14" s="2">
-        <v>2509.9540000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2621.797</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2586.54</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2787.6680000000001</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2939.8330000000001</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2905.0660000000003</v>
-      </c>
-      <c r="N14" s="2">
         <v>3021.636</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>785.44099999999992</v>
+        <v>883.25099999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>915.15300000000002</v>
+        <v>853.57799999999997</v>
       </c>
       <c r="D15" s="2">
-        <v>944.21900000000005</v>
+        <v>865.20500000000004</v>
       </c>
       <c r="E15" s="2">
-        <v>1008.178</v>
+        <v>885.86299999999994</v>
       </c>
       <c r="F15" s="2">
-        <v>990.34</v>
+        <v>780.96399999999994</v>
       </c>
       <c r="G15" s="2">
-        <v>1005.6</v>
+        <v>736.20500000000004</v>
       </c>
       <c r="H15" s="2">
-        <v>883.25099999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <v>853.57799999999997</v>
-      </c>
-      <c r="J15" s="2">
-        <v>865.20500000000004</v>
-      </c>
-      <c r="K15" s="2">
-        <v>885.86299999999994</v>
-      </c>
-      <c r="L15" s="2">
-        <v>780.96399999999994</v>
-      </c>
-      <c r="M15" s="2">
-        <v>736.20500000000004</v>
-      </c>
-      <c r="N15" s="2">
         <v>754.24699999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>475.30099999999999</v>
+        <v>549.02099999999996</v>
       </c>
       <c r="C16" s="2">
-        <v>500.26000000000005</v>
+        <v>531.30900000000008</v>
       </c>
       <c r="D16" s="2">
-        <v>503.59900000000005</v>
+        <v>517.24099999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>526.34400000000005</v>
+        <v>530.84100000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>556.55200000000002</v>
+        <v>479.48099999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>543.09900000000005</v>
+        <v>472.822</v>
       </c>
       <c r="H16" s="2">
-        <v>549.02099999999996</v>
-      </c>
-      <c r="I16" s="2">
-        <v>531.30900000000008</v>
-      </c>
-      <c r="J16" s="2">
-        <v>517.24099999999999</v>
-      </c>
-      <c r="K16" s="2">
-        <v>530.84100000000001</v>
-      </c>
-      <c r="L16" s="2">
-        <v>479.48099999999999</v>
-      </c>
-      <c r="M16" s="2">
-        <v>472.822</v>
-      </c>
-      <c r="N16" s="2">
         <v>480.96199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>2853.6379999999999</v>
+        <v>2372.5030000000002</v>
       </c>
       <c r="C17" s="2">
-        <v>2880.9070000000002</v>
+        <v>2034.8019999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>2803.93</v>
+        <v>1510.2</v>
       </c>
       <c r="E17" s="2">
-        <v>2789.4859999999999</v>
+        <v>1012.605</v>
       </c>
       <c r="F17" s="2">
-        <v>2682.6329999999998</v>
+        <v>568.57100000000003</v>
       </c>
       <c r="G17" s="2">
-        <v>2653.8710000000001</v>
+        <v>636</v>
       </c>
       <c r="H17" s="2">
-        <v>2372.5030000000002</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2034.8019999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1510.2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1012.605</v>
-      </c>
-      <c r="L17" s="2">
-        <v>568.57100000000003</v>
-      </c>
-      <c r="M17" s="2">
-        <v>636</v>
-      </c>
-      <c r="N17" s="2">
         <v>716.39499999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>3544</v>
+        <v>3651.2979999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>3576</v>
+        <v>3867.3150000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>3739.7510000000002</v>
+        <v>3535.8649999999998</v>
       </c>
       <c r="E18" s="2">
-        <v>3575.3420000000001</v>
+        <v>2362.4459999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>3117.0819999999999</v>
+        <v>1990.624</v>
       </c>
       <c r="G18" s="2">
-        <v>3151.6439999999998</v>
+        <v>2392.1170000000002</v>
       </c>
       <c r="H18" s="2">
-        <v>3651.2979999999998</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3867.3150000000001</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3535.8649999999998</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2362.4459999999999</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1990.624</v>
-      </c>
-      <c r="M18" s="2">
-        <v>2392.1170000000002</v>
-      </c>
-      <c r="N18" s="2">
         <v>2554.2669999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>2358.0740000000001</v>
+        <v>4647.7950000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>2652.625</v>
+        <v>4468.6629999999996</v>
       </c>
       <c r="D19" s="2">
-        <v>2942.4070000000002</v>
+        <v>4410</v>
       </c>
       <c r="E19" s="2">
-        <v>2979.616</v>
+        <v>4576.1400000000003</v>
       </c>
       <c r="F19" s="2">
-        <v>3110.471</v>
+        <v>3996.6170000000002</v>
       </c>
       <c r="G19" s="2">
-        <v>3504.1370000000002</v>
+        <v>3971.3670000000002</v>
       </c>
       <c r="H19" s="2">
-        <v>4647.7950000000001</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4468.6629999999996</v>
-      </c>
-      <c r="J19" s="2">
-        <v>4410</v>
-      </c>
-      <c r="K19" s="2">
-        <v>4576.1400000000003</v>
-      </c>
-      <c r="L19" s="2">
-        <v>3996.6170000000002</v>
-      </c>
-      <c r="M19" s="2">
-        <v>3971.3670000000002</v>
-      </c>
-      <c r="N19" s="2">
         <v>4452.5280000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>2312.12</v>
+        <v>2954.2649999999999</v>
       </c>
       <c r="C20" s="2">
-        <v>2658.69</v>
+        <v>2704.2359999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>2977.56</v>
+        <v>2736.6030000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>2924.65</v>
+        <v>2677.6550000000002</v>
       </c>
       <c r="F20" s="2">
-        <v>2866.78</v>
+        <v>2438.0030000000002</v>
       </c>
       <c r="G20" s="2">
-        <v>2858.6849999999999</v>
+        <v>2414.9560000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>2954.2649999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2704.2359999999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2736.6030000000001</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2677.6550000000002</v>
-      </c>
-      <c r="L20" s="2">
-        <v>2438.0030000000002</v>
-      </c>
-      <c r="M20" s="2">
-        <v>2414.9560000000001</v>
-      </c>
-      <c r="N20" s="2">
         <v>2707.038</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>733.423</v>
+        <v>651.50400000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>733.51499999999999</v>
+        <v>600.03600000000006</v>
       </c>
       <c r="D21" s="2">
-        <v>733.57799999999997</v>
+        <v>600.63800000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>723.923</v>
+        <v>595.44399999999996</v>
       </c>
       <c r="F21" s="2">
-        <v>709.154</v>
+        <v>603.06000000000006</v>
       </c>
       <c r="G21" s="2">
-        <v>655.96799999999996</v>
+        <v>601.46599999999989</v>
       </c>
       <c r="H21" s="2">
-        <v>651.50400000000002</v>
-      </c>
-      <c r="I21" s="2">
-        <v>600.03600000000006</v>
-      </c>
-      <c r="J21" s="2">
-        <v>600.63800000000003</v>
-      </c>
-      <c r="K21" s="2">
-        <v>595.44399999999996</v>
-      </c>
-      <c r="L21" s="2">
-        <v>603.06000000000006</v>
-      </c>
-      <c r="M21" s="2">
-        <v>601.46599999999989</v>
-      </c>
-      <c r="N21" s="2">
         <v>606.00800000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>8165.6</v>
+        <v>10460.200000000001</v>
       </c>
       <c r="C22" s="2">
-        <v>9311</v>
+        <v>9959.1620000000003</v>
       </c>
       <c r="D22" s="2">
-        <v>9763</v>
+        <v>10317.287</v>
       </c>
       <c r="E22" s="2">
-        <v>9637</v>
+        <v>9808.1610000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>9712.7000000000007</v>
+        <v>9213.2099999999991</v>
       </c>
       <c r="G22" s="2">
-        <v>10192.6</v>
+        <v>9124.7170000000006</v>
       </c>
       <c r="H22" s="2">
-        <v>10460.200000000001</v>
-      </c>
-      <c r="I22" s="2">
-        <v>9959.1620000000003</v>
-      </c>
-      <c r="J22" s="2">
-        <v>10317.287</v>
-      </c>
-      <c r="K22" s="2">
-        <v>9808.1610000000001</v>
-      </c>
-      <c r="L22" s="2">
-        <v>9213.2099999999991</v>
-      </c>
-      <c r="M22" s="2">
-        <v>9124.7170000000006</v>
-      </c>
-      <c r="N22" s="2">
         <v>10590.912</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>2323.8290000000002</v>
+        <v>3088.2840000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>2564.17</v>
+        <v>2966.5259999999998</v>
       </c>
       <c r="D23" s="2">
-        <v>2653</v>
+        <v>3008.3420000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>2796.5340000000001</v>
+        <v>3057.8989999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>2794</v>
+        <v>2778.5520000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>2988.8849999999998</v>
+        <v>2717.6030000000001</v>
       </c>
       <c r="H23" s="2">
-        <v>3088.2840000000001</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2966.5259999999998</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3008.3420000000001</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3057.8989999999999</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2778.5520000000001</v>
-      </c>
-      <c r="M23" s="2">
-        <v>2717.6030000000001</v>
-      </c>
-      <c r="N23" s="2">
         <v>3064.181</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>1757.6</v>
+        <v>1721.62</v>
       </c>
       <c r="C24" s="2">
-        <v>1618.047</v>
+        <v>1632.2380000000001</v>
       </c>
       <c r="D24" s="2">
-        <v>1704.001</v>
+        <v>1473.2670000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>1701.203</v>
+        <v>1372.848</v>
       </c>
       <c r="F24" s="2">
-        <v>1653.6880000000001</v>
+        <v>1271.46</v>
       </c>
       <c r="G24" s="2">
-        <v>1767.068</v>
+        <v>1124.4570000000001</v>
       </c>
       <c r="H24" s="2">
-        <v>1721.62</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1632.2380000000001</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1473.2670000000001</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1372.848</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1271.46</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1124.4570000000001</v>
-      </c>
-      <c r="N24" s="2">
         <v>1136.711</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>308.14600000000002</v>
+        <v>225.00800000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>289.43099999999998</v>
+        <v>262.73</v>
       </c>
       <c r="D25" s="2">
-        <v>262.87</v>
+        <v>323.46600000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>239.78899999999999</v>
+        <v>329.197</v>
       </c>
       <c r="F25" s="2">
-        <v>241.459</v>
+        <v>299.93599999999998</v>
       </c>
       <c r="G25" s="2">
-        <v>234.136</v>
+        <v>266.64600000000002</v>
       </c>
       <c r="H25" s="2">
-        <v>225.00800000000001</v>
-      </c>
-      <c r="I25" s="2">
-        <v>262.73</v>
-      </c>
-      <c r="J25" s="2">
-        <v>323.46600000000001</v>
-      </c>
-      <c r="K25" s="2">
-        <v>329.197</v>
-      </c>
-      <c r="L25" s="2">
-        <v>299.93599999999998</v>
-      </c>
-      <c r="M25" s="2">
-        <v>266.64600000000002</v>
-      </c>
-      <c r="N25" s="2">
         <v>261.60399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>561.42200000000003</v>
+        <v>544.38299999999992</v>
       </c>
       <c r="C26" s="2">
-        <v>571.71499999999992</v>
+        <v>530.86299999999994</v>
       </c>
       <c r="D26" s="2">
-        <v>564.29499999999996</v>
+        <v>538.84900000000005</v>
       </c>
       <c r="E26" s="2">
-        <v>562.60299999999995</v>
+        <v>510.64100000000002</v>
       </c>
       <c r="F26" s="2">
-        <v>573.86800000000005</v>
+        <v>486.73499999999996</v>
       </c>
       <c r="G26" s="2">
-        <v>578.35599999999999</v>
+        <v>447.51499999999999</v>
       </c>
       <c r="H26" s="2">
-        <v>544.38299999999992</v>
-      </c>
-      <c r="I26" s="2">
-        <v>530.86299999999994</v>
-      </c>
-      <c r="J26" s="2">
-        <v>538.84900000000005</v>
-      </c>
-      <c r="K26" s="2">
-        <v>510.64100000000002</v>
-      </c>
-      <c r="L26" s="2">
-        <v>486.73499999999996</v>
-      </c>
-      <c r="M26" s="2">
-        <v>447.51499999999999</v>
-      </c>
-      <c r="N26" s="2">
         <v>451.87400000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>240.97200000000001</v>
+        <v>163.20500000000001</v>
       </c>
       <c r="C27" s="2">
-        <v>228.80500000000001</v>
+        <v>128.6</v>
       </c>
       <c r="D27" s="2">
-        <v>247.143</v>
+        <v>120.179</v>
       </c>
       <c r="E27" s="2">
-        <v>211.19</v>
+        <v>109.583</v>
       </c>
       <c r="F27" s="2">
-        <v>201.49799999999999</v>
+        <v>113.575</v>
       </c>
       <c r="G27" s="2">
-        <v>186.78899999999999</v>
+        <v>93.32</v>
       </c>
       <c r="H27" s="2">
-        <v>163.20500000000001</v>
-      </c>
-      <c r="I27" s="2">
-        <v>128.6</v>
-      </c>
-      <c r="J27" s="2">
-        <v>120.179</v>
-      </c>
-      <c r="K27" s="2">
-        <v>109.583</v>
-      </c>
-      <c r="L27" s="2">
-        <v>113.575</v>
-      </c>
-      <c r="M27" s="2">
-        <v>93.32</v>
-      </c>
-      <c r="N27" s="2">
         <v>81.295000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>2048.2689999999998</v>
+        <v>1427.2619999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>1974.808</v>
+        <v>1535.6389999999999</v>
       </c>
       <c r="D28" s="2">
-        <v>1954.0740000000001</v>
+        <v>1601.61</v>
       </c>
       <c r="E28" s="2">
-        <v>1753.7170000000001</v>
+        <v>1737.4069999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>1807.047</v>
+        <v>1493.2260000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>1748.191</v>
+        <v>1322.759</v>
       </c>
       <c r="H28" s="2">
-        <v>1427.2619999999999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1535.6389999999999</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1601.61</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1737.4069999999999</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1493.2260000000001</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1322.759</v>
-      </c>
-      <c r="N28" s="2">
         <v>1137.913</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>9694.0899999999983</v>
+        <v>10292.249</v>
       </c>
       <c r="C29" s="1">
-        <v>9787.369999999999</v>
+        <v>10189.537</v>
       </c>
       <c r="D29" s="1">
-        <v>9952.5769999999993</v>
+        <v>10354.89</v>
       </c>
       <c r="E29" s="1">
-        <v>10046.550999999999</v>
+        <v>10389.874000000002</v>
       </c>
       <c r="F29" s="1">
-        <v>10086.753000000001</v>
+        <v>9409.2979999999989</v>
       </c>
       <c r="G29" s="1">
-        <v>10111.132</v>
+        <v>9619.3950000000004</v>
       </c>
       <c r="H29" s="1">
-        <v>10292.249</v>
-      </c>
-      <c r="I29" s="1">
-        <v>10189.537</v>
-      </c>
-      <c r="J29" s="1">
-        <v>10354.89</v>
-      </c>
-      <c r="K29" s="1">
-        <v>10389.874000000002</v>
-      </c>
-      <c r="L29" s="1">
-        <v>9409.2979999999989</v>
-      </c>
-      <c r="M29" s="1">
-        <v>9619.3950000000004</v>
-      </c>
-      <c r="N29" s="1">
         <v>9756.0490000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>981.12099999999998</v>
+        <v>769.78399999999999</v>
       </c>
       <c r="C30" s="2">
-        <v>871.97499999999991</v>
+        <v>729.16199999999992</v>
       </c>
       <c r="D30" s="2">
-        <v>817.16399999999999</v>
+        <v>725.04700000000003</v>
       </c>
       <c r="E30" s="2">
-        <v>814.71800000000007</v>
+        <v>678.49599999999998</v>
       </c>
       <c r="F30" s="2">
-        <v>793.13400000000001</v>
+        <v>611.26499999999999</v>
       </c>
       <c r="G30" s="2">
-        <v>786.6880000000001</v>
+        <v>590.29899999999998</v>
       </c>
       <c r="H30" s="2">
-        <v>769.78399999999999</v>
-      </c>
-      <c r="I30" s="2">
-        <v>729.16199999999992</v>
-      </c>
-      <c r="J30" s="2">
-        <v>725.04700000000003</v>
-      </c>
-      <c r="K30" s="2">
-        <v>678.49599999999998</v>
-      </c>
-      <c r="L30" s="2">
-        <v>611.26499999999999</v>
-      </c>
-      <c r="M30" s="2">
-        <v>590.29899999999998</v>
-      </c>
-      <c r="N30" s="2">
         <v>558.35599999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>1382.83</v>
+        <v>1320.2919999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>1377.712</v>
+        <v>1468.855</v>
       </c>
       <c r="D31" s="2">
-        <v>1344.4970000000001</v>
+        <v>1564.4880000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>1402.3969999999999</v>
+        <v>1587.2520000000002</v>
       </c>
       <c r="F31" s="2">
-        <v>1371.5260000000001</v>
+        <v>1470.0050000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>1343.027</v>
+        <v>1488.7070000000001</v>
       </c>
       <c r="H31" s="2">
-        <v>1320.2919999999999</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1468.855</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1564.4880000000001</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1587.2520000000002</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1470.0050000000001</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1488.7070000000001</v>
-      </c>
-      <c r="N31" s="2">
         <v>1464.0219999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1981,14 +1423,8 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2001,14 +1437,8 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2020,14 +1450,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2039,14 +1463,8 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2058,12 +1476,6 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/Data/oil-production_db.xlsx
+++ b/Work/Data/oil-production_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28779192-B303-439A-B2A4-E32888EA17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE382E5-56CC-4D19-96FE-870DC3EFB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Canada</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Iran</t>
+  </si>
+  <si>
+    <t>Страна</t>
   </si>
 </sst>
 </file>
@@ -599,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E6ED6-E920-4B72-BD2D-65610985EEA9}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,6 +610,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="4">
         <v>2016</v>
       </c>

--- a/Work/Data/oil-production_db.xlsx
+++ b/Work/Data/oil-production_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9AF8A-AD93-4756-8337-62E761916AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41792577-32C4-470F-AF4D-2456D1E6823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,6 +108,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,23 +142,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_ASB39_T 3.6 new" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -577,367 +577,367 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="9">
         <v>2016</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="9">
         <v>2017</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="9">
         <v>2018</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="9">
         <v>2019</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="9">
         <v>2020</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="9">
         <v>2021</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="9">
         <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1146.2950000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1058.693</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1040.1020000000001</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1023.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>898.73800000000006</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>910.87699999999995</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>1020.258</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1721.62</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1632.2380000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1473.2670000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1372.848</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1271.46</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1124.4570000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1136.711</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>225.00800000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>262.73</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>323.46600000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>329.197</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>299.93599999999998</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>266.64600000000002</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>261.60399999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>163.20500000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>128.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>120.179</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>109.583</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>113.575</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>93.32</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>81.295000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>220.69300000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>210.066</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>193.447</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>217.83099999999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>207.41900000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>181.16800000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>190.547</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3651.2979999999998</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>3867.3150000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3535.8649999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2362.4459999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1990.624</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2392.1170000000002</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2554.2669999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4647.7950000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>4468.6629999999996</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4410</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4576.1400000000003</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3996.6170000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>3971.3670000000002</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>4452.5280000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2954.2649999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2704.2359999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2736.6030000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2677.6550000000002</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>2438.0030000000002</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>2414.9560000000001</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2707.038</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>388.94499999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>807.59400000000005</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>946.21900000000005</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1090.806</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>389.334</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1207.0909999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>981.28200000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1427.2619999999999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1535.6389999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1601.61</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1737.4069999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>1493.2260000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1322.759</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1137.913</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10460.200000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>9959.1620000000003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>10317.287</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>9808.1610000000001</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>9213.2099999999991</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>9124.7170000000006</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>10590.912</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3088.2840000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2966.5259999999998</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3008.3420000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>3057.8989999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2778.5520000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2717.6030000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>3064.181</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>2372.5030000000002</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2034.8019999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1510.2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1012.605</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>568.57100000000003</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>636</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>716.39499999999998</v>
       </c>
     </row>
@@ -962,97 +962,97 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="9:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
